--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mfge8-Itgav.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H2">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I2">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J2">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N2">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O2">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P2">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q2">
-        <v>176.8741144036086</v>
+        <v>262.4606322702462</v>
       </c>
       <c r="R2">
-        <v>176.8741144036086</v>
+        <v>2362.145690432216</v>
       </c>
       <c r="S2">
-        <v>0.00524171153685201</v>
+        <v>0.007004086137108163</v>
       </c>
       <c r="T2">
-        <v>0.00524171153685201</v>
+        <v>0.009195928113954468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H3">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I3">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J3">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N3">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P3">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q3">
-        <v>1542.673041165255</v>
+        <v>1728.470260343086</v>
       </c>
       <c r="R3">
-        <v>1542.673041165255</v>
+        <v>15556.23234308777</v>
       </c>
       <c r="S3">
-        <v>0.0457175268678067</v>
+        <v>0.04612636372988413</v>
       </c>
       <c r="T3">
-        <v>0.0457175268678067</v>
+        <v>0.06056103775920493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H4">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I4">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J4">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N4">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O4">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P4">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q4">
-        <v>1259.174440608966</v>
+        <v>1451.588282564926</v>
       </c>
       <c r="R4">
-        <v>1259.174440608966</v>
+        <v>13064.29454308434</v>
       </c>
       <c r="S4">
-        <v>0.03731597025660943</v>
+        <v>0.03873742617610172</v>
       </c>
       <c r="T4">
-        <v>0.03731597025660943</v>
+        <v>0.05085982374598951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H5">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I5">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J5">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N5">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O5">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P5">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q5">
-        <v>1390.788486314163</v>
+        <v>1494.36238112877</v>
       </c>
       <c r="R5">
-        <v>1390.788486314163</v>
+        <v>13449.26143015893</v>
       </c>
       <c r="S5">
-        <v>0.04121638759077321</v>
+        <v>0.03987890582654254</v>
       </c>
       <c r="T5">
-        <v>0.04121638759077321</v>
+        <v>0.05235851531024396</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.8786464441813</v>
+        <v>24.56527133333333</v>
       </c>
       <c r="H6">
-        <v>22.8786464441813</v>
+        <v>73.695814</v>
       </c>
       <c r="I6">
-        <v>0.1457371591606846</v>
+        <v>0.1488556947621522</v>
       </c>
       <c r="J6">
-        <v>0.1457371591606846</v>
+        <v>0.1879505950660008</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N6">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O6">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P6">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q6">
-        <v>548.1834573025869</v>
+        <v>641.1137737778043</v>
       </c>
       <c r="R6">
-        <v>548.1834573025869</v>
+        <v>3846.682642666826</v>
       </c>
       <c r="S6">
-        <v>0.01624556290864328</v>
+        <v>0.01710891289251562</v>
       </c>
       <c r="T6">
-        <v>0.01624556290864328</v>
+        <v>0.01497529013660795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H7">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I7">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J7">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N7">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O7">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P7">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q7">
-        <v>183.2619678256793</v>
+        <v>275.5430578136369</v>
       </c>
       <c r="R7">
-        <v>183.2619678256793</v>
+        <v>2479.887520322732</v>
       </c>
       <c r="S7">
-        <v>0.005431017276084051</v>
+        <v>0.007353206820829841</v>
       </c>
       <c r="T7">
-        <v>0.005431017276084051</v>
+        <v>0.009654301790084719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H8">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I8">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J8">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N8">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P8">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q8">
-        <v>1598.387068615631</v>
+        <v>1814.626356551907</v>
       </c>
       <c r="R8">
-        <v>1598.387068615631</v>
+        <v>16331.63720896716</v>
       </c>
       <c r="S8">
-        <v>0.0473686269252449</v>
+        <v>0.04842554556856164</v>
       </c>
       <c r="T8">
-        <v>0.0473686269252449</v>
+        <v>0.0635797200677177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H9">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I9">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J9">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N9">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O9">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P9">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q9">
-        <v>1304.649844325044</v>
+        <v>1523.943117124497</v>
       </c>
       <c r="R9">
-        <v>1304.649844325044</v>
+        <v>13715.48805412047</v>
       </c>
       <c r="S9">
-        <v>0.03866364596995683</v>
+        <v>0.04066830430173861</v>
       </c>
       <c r="T9">
-        <v>0.03866364596995683</v>
+        <v>0.05339494625770309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H10">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I10">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J10">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N10">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O10">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P10">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q10">
-        <v>1441.01716461248</v>
+        <v>1568.849302907695</v>
       </c>
       <c r="R10">
-        <v>1441.01716461248</v>
+        <v>14119.64372616926</v>
       </c>
       <c r="S10">
-        <v>0.04270492786363827</v>
+        <v>0.0418666813329676</v>
       </c>
       <c r="T10">
-        <v>0.04270492786363827</v>
+        <v>0.05496834053311186</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.7049145528505</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H11">
-        <v>23.7049145528505</v>
+        <v>77.369203</v>
       </c>
       <c r="I11">
-        <v>0.1510004935610091</v>
+        <v>0.1562754495901082</v>
       </c>
       <c r="J11">
-        <v>0.1510004935610091</v>
+        <v>0.1973190464200886</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N11">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O11">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P11">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q11">
-        <v>567.9812416502859</v>
+        <v>673.0702738355128</v>
       </c>
       <c r="R11">
-        <v>567.9812416502859</v>
+        <v>4038.421643013077</v>
       </c>
       <c r="S11">
-        <v>0.01683227552608508</v>
+        <v>0.0179617115660105</v>
       </c>
       <c r="T11">
-        <v>0.01683227552608508</v>
+        <v>0.01572173777147123</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H12">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I12">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J12">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N12">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O12">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P12">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q12">
-        <v>38.45350794275208</v>
+        <v>88.80424702749023</v>
       </c>
       <c r="R12">
-        <v>38.45350794275208</v>
+        <v>799.2382232474121</v>
       </c>
       <c r="S12">
-        <v>0.001139579959993522</v>
+        <v>0.002369851014003235</v>
       </c>
       <c r="T12">
-        <v>0.001139579959993522</v>
+        <v>0.003111466526674343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H13">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I13">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J13">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N13">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P13">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q13">
-        <v>335.3864992711864</v>
+        <v>584.8324704983906</v>
       </c>
       <c r="R13">
-        <v>335.3864992711864</v>
+        <v>5263.492234485515</v>
       </c>
       <c r="S13">
-        <v>0.009939268323473338</v>
+        <v>0.01560697680149901</v>
       </c>
       <c r="T13">
-        <v>0.009939268323473338</v>
+        <v>0.02049098682301423</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H14">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I14">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J14">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N14">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O14">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P14">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q14">
-        <v>273.7521797156735</v>
+        <v>491.1487231897502</v>
       </c>
       <c r="R14">
-        <v>273.7521797156735</v>
+        <v>4420.338508707752</v>
       </c>
       <c r="S14">
-        <v>0.008112718831087221</v>
+        <v>0.01310691029582528</v>
       </c>
       <c r="T14">
-        <v>0.008112718831087221</v>
+        <v>0.01720855547990496</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H15">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I15">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J15">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N15">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O15">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P15">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q15">
-        <v>302.3658735225232</v>
+        <v>505.6214522325218</v>
       </c>
       <c r="R15">
-        <v>302.3658735225232</v>
+        <v>4550.593070092697</v>
       </c>
       <c r="S15">
-        <v>0.008960693275765231</v>
+        <v>0.013493132945591</v>
       </c>
       <c r="T15">
-        <v>0.008960693275765231</v>
+        <v>0.01771564172266395</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.97395684906843</v>
+        <v>8.311724333333334</v>
       </c>
       <c r="H16">
-        <v>4.97395684906843</v>
+        <v>24.935173</v>
       </c>
       <c r="I16">
-        <v>0.03168414454673405</v>
+        <v>0.05036571684966338</v>
       </c>
       <c r="J16">
-        <v>0.03168414454673405</v>
+        <v>0.06359357945925771</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N16">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O16">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P16">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q16">
-        <v>119.1784168110031</v>
+        <v>216.9225359507178</v>
       </c>
       <c r="R16">
-        <v>119.1784168110031</v>
+        <v>1301.535215704307</v>
       </c>
       <c r="S16">
-        <v>0.003531884156414737</v>
+        <v>0.005788845792744857</v>
       </c>
       <c r="T16">
-        <v>0.003531884156414737</v>
+        <v>0.005066928907000238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H17">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I17">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J17">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N17">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O17">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P17">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q17">
-        <v>19.75131281396659</v>
+        <v>36.117784680588</v>
       </c>
       <c r="R17">
-        <v>19.75131281396659</v>
+        <v>325.0600621252919</v>
       </c>
       <c r="S17">
-        <v>0.0005853354211498421</v>
+        <v>0.0009638476932566702</v>
       </c>
       <c r="T17">
-        <v>0.0005853354211498421</v>
+        <v>0.001265471886907535</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H18">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I18">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J18">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N18">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P18">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q18">
-        <v>172.2683836946264</v>
+        <v>237.858592924485</v>
       </c>
       <c r="R18">
-        <v>172.2683836946264</v>
+        <v>2140.727336320365</v>
       </c>
       <c r="S18">
-        <v>0.005105219479355026</v>
+        <v>0.006347550331201814</v>
       </c>
       <c r="T18">
-        <v>0.005105219479355026</v>
+        <v>0.008333937561987231</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H19">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I19">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J19">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N19">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O19">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P19">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q19">
-        <v>140.6104468575174</v>
+        <v>199.756255180248</v>
       </c>
       <c r="R19">
-        <v>140.6104468575174</v>
+        <v>1797.806296622232</v>
       </c>
       <c r="S19">
-        <v>0.00416702808084804</v>
+        <v>0.005330742388321317</v>
       </c>
       <c r="T19">
-        <v>0.00416702808084804</v>
+        <v>0.006998932171507042</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H20">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I20">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J20">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N20">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O20">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P20">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q20">
-        <v>155.3076239780946</v>
+        <v>205.642492931304</v>
       </c>
       <c r="R20">
-        <v>155.3076239780946</v>
+        <v>1850.782436381736</v>
       </c>
       <c r="S20">
-        <v>0.004602582843238497</v>
+        <v>0.005487823912797123</v>
       </c>
       <c r="T20">
-        <v>0.004602582843238497</v>
+        <v>0.007205170412846874</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.55483005075586</v>
+        <v>3.380481</v>
       </c>
       <c r="H21">
-        <v>2.55483005075586</v>
+        <v>10.141443</v>
       </c>
       <c r="I21">
-        <v>0.01627428767011704</v>
+        <v>0.02048435944619276</v>
       </c>
       <c r="J21">
-        <v>0.01627428767011704</v>
+        <v>0.025864294635214</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N21">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O21">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P21">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q21">
-        <v>61.21496625514236</v>
+        <v>88.22507603053948</v>
       </c>
       <c r="R21">
-        <v>61.21496625514236</v>
+        <v>529.3504561832369</v>
       </c>
       <c r="S21">
-        <v>0.001814121845525632</v>
+        <v>0.002354395120615837</v>
       </c>
       <c r="T21">
-        <v>0.001814121845525632</v>
+        <v>0.002060782601965313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H22">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I22">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J22">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.73096934887041</v>
+        <v>10.68421466666667</v>
       </c>
       <c r="N22">
-        <v>7.73096934887041</v>
+        <v>32.052644</v>
       </c>
       <c r="O22">
-        <v>0.03596688426643945</v>
+        <v>0.04705285980693976</v>
       </c>
       <c r="P22">
-        <v>0.03596688426643945</v>
+        <v>0.04892736897547583</v>
       </c>
       <c r="Q22">
-        <v>795.3105461176052</v>
+        <v>1100.262664716306</v>
       </c>
       <c r="R22">
-        <v>795.3105461176052</v>
+        <v>6601.575988297836</v>
       </c>
       <c r="S22">
-        <v>0.02356924007236003</v>
+        <v>0.02936186814174185</v>
       </c>
       <c r="T22">
-        <v>0.02356924007236003</v>
+        <v>0.02570020065785476</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H23">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I23">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J23">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>67.428510026982</v>
+        <v>70.36235166666667</v>
       </c>
       <c r="N23">
-        <v>67.428510026982</v>
+        <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3136984907013329</v>
+        <v>0.3098730203341347</v>
       </c>
       <c r="P23">
-        <v>0.3136984907013329</v>
+        <v>0.3222178559101571</v>
       </c>
       <c r="Q23">
-        <v>6936.595233208495</v>
+        <v>7245.929715546008</v>
       </c>
       <c r="R23">
-        <v>6936.595233208495</v>
+        <v>43475.57829327604</v>
       </c>
       <c r="S23">
-        <v>0.2055678491054529</v>
+        <v>0.1933665839029881</v>
       </c>
       <c r="T23">
-        <v>0.2055678491054529</v>
+        <v>0.169252173698233</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H24">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I24">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J24">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>55.0371038636864</v>
+        <v>59.09107466666666</v>
       </c>
       <c r="N24">
-        <v>55.0371038636864</v>
+        <v>177.273224</v>
       </c>
       <c r="O24">
-        <v>0.256049798634171</v>
+        <v>0.2602347611759026</v>
       </c>
       <c r="P24">
-        <v>0.256049798634171</v>
+        <v>0.2706020894912812</v>
       </c>
       <c r="Q24">
-        <v>5661.850041735757</v>
+        <v>6085.211248753476</v>
       </c>
       <c r="R24">
-        <v>5661.850041735757</v>
+        <v>36511.26749252086</v>
       </c>
       <c r="S24">
-        <v>0.1677904354956695</v>
+        <v>0.1623913780139157</v>
       </c>
       <c r="T24">
-        <v>0.1677904354956695</v>
+        <v>0.1421398318361766</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H25">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I25">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J25">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>60.7898063247479</v>
+        <v>60.83231733333333</v>
       </c>
       <c r="N25">
-        <v>60.7898063247479</v>
+        <v>182.496952</v>
       </c>
       <c r="O25">
-        <v>0.2828131674045428</v>
+        <v>0.2679031251727568</v>
       </c>
       <c r="P25">
-        <v>0.2828131674045428</v>
+        <v>0.2785759485989269</v>
       </c>
       <c r="Q25">
-        <v>6253.649689295789</v>
+        <v>6264.524783357147</v>
       </c>
       <c r="R25">
-        <v>6253.649689295789</v>
+        <v>37587.14870014289</v>
       </c>
       <c r="S25">
-        <v>0.1853285758311277</v>
+        <v>0.1671765811548586</v>
       </c>
       <c r="T25">
-        <v>0.1853285758311277</v>
+        <v>0.1463282806200602</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>102.873328068984</v>
+        <v>102.9802095</v>
       </c>
       <c r="H26">
-        <v>102.873328068984</v>
+        <v>205.960419</v>
       </c>
       <c r="I26">
-        <v>0.6553039150614552</v>
+        <v>0.6240187793518835</v>
       </c>
       <c r="J26">
-        <v>0.6553039150614552</v>
+        <v>0.5252724844194389</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.9604846659102</v>
+        <v>26.0983795</v>
       </c>
       <c r="N26">
-        <v>23.9604846659102</v>
+        <v>52.196759</v>
       </c>
       <c r="O26">
-        <v>0.1114716589935138</v>
+        <v>0.1149362335102661</v>
       </c>
       <c r="P26">
-        <v>0.1114716589935138</v>
+        <v>0.07967673702415903</v>
       </c>
       <c r="Q26">
-        <v>2464.894799728041</v>
+        <v>2687.616588520506</v>
       </c>
       <c r="R26">
-        <v>2464.894799728041</v>
+        <v>10750.46635408202</v>
       </c>
       <c r="S26">
-        <v>0.07304781455684504</v>
+        <v>0.07172236813837933</v>
       </c>
       <c r="T26">
-        <v>0.07304781455684504</v>
+        <v>0.04185199760711431</v>
       </c>
     </row>
   </sheetData>
